--- a/data/case1/9/V2_14.xlsx
+++ b/data/case1/9/V2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999145664153</v>
+        <v>0.99999999147019625</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99682106812892624</v>
+        <v>0.9971433942856277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.98617801045957909</v>
+        <v>0.98549050094014135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.98803165995702746</v>
+        <v>0.98503563183308196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.97670272389205937</v>
+        <v>0.97131309834847968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94912328041835414</v>
+        <v>0.94974408631483009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94626232644418173</v>
+        <v>0.94475851788178089</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94192841936417782</v>
+        <v>0.93820552771491283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93882279689360981</v>
+        <v>0.93080961528061945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93664494279985511</v>
+        <v>0.92433020953261213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93634959330330725</v>
+        <v>0.92342945941248311</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93604375819108521</v>
+        <v>0.92197138653539967</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93731217129902933</v>
+        <v>0.91690235917650509</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93899356960595592</v>
+        <v>0.91546606631013461</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.94169669811019152</v>
+        <v>0.91545116901304624</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.94536610859340042</v>
+        <v>0.91294478377798938</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.95570201188937809</v>
+        <v>0.90923698757598559</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.96084807048714715</v>
+        <v>0.90812809508204406</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99441173079557266</v>
+        <v>0.9960902384038528</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97544101114118797</v>
+        <v>0.98897339181316957</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97017513711023695</v>
+        <v>0.98757493608436109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.96768744151687269</v>
+        <v>0.98631044112701072</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97393607895543433</v>
+        <v>0.97845582473702197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.96091498993624946</v>
+        <v>0.96543506421546965</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95445796588356491</v>
+        <v>0.95897809592949346</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94546869241882714</v>
+        <v>0.94799643244531917</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94062322722280145</v>
+        <v>0.94581030311236391</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.91915396274349503</v>
+        <v>0.9368514875180195</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9038840203306886</v>
+        <v>0.93088945587174909</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.89731396067715674</v>
+        <v>0.92890631350126895</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.88966054304948883</v>
+        <v>0.93316235733823893</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.88798126847000514</v>
+        <v>0.93564539215791653</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.88746127284897058</v>
+        <v>0.93512539668193218</v>
       </c>
     </row>
   </sheetData>
